--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N2">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O2">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P2">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q2">
-        <v>24.00300138318923</v>
+        <v>24.65306702683867</v>
       </c>
       <c r="R2">
-        <v>216.027012448703</v>
+        <v>221.877603241548</v>
       </c>
       <c r="S2">
-        <v>0.002531347961087789</v>
+        <v>0.003210897981045621</v>
       </c>
       <c r="T2">
-        <v>0.002531347961087789</v>
+        <v>0.003210897981045621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.692192</v>
       </c>
       <c r="O3">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P3">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q3">
-        <v>137.9587580678435</v>
+        <v>148.2921799143893</v>
       </c>
       <c r="R3">
-        <v>1241.628822610592</v>
+        <v>1334.629619229504</v>
       </c>
       <c r="S3">
-        <v>0.01454908139920455</v>
+        <v>0.0193140699521728</v>
       </c>
       <c r="T3">
-        <v>0.01454908139920454</v>
+        <v>0.0193140699521728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N4">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O4">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P4">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q4">
-        <v>55.96796550982555</v>
+        <v>68.41555493254801</v>
       </c>
       <c r="R4">
-        <v>503.71168958843</v>
+        <v>615.739994392932</v>
       </c>
       <c r="S4">
-        <v>0.005902361672101218</v>
+        <v>0.008910670910271881</v>
       </c>
       <c r="T4">
-        <v>0.005902361672101218</v>
+        <v>0.008910670910271879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N5">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O5">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P5">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q5">
-        <v>41.937723216138</v>
+        <v>55.51308724865733</v>
       </c>
       <c r="R5">
-        <v>377.439508945242</v>
+        <v>499.617785237916</v>
       </c>
       <c r="S5">
-        <v>0.004422737326098918</v>
+        <v>0.00723021032532277</v>
       </c>
       <c r="T5">
-        <v>0.004422737326098918</v>
+        <v>0.00723021032532277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N6">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O6">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P6">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q6">
-        <v>39.12694570313833</v>
+        <v>34.19738490246533</v>
       </c>
       <c r="R6">
-        <v>352.142511328245</v>
+        <v>307.776464122188</v>
       </c>
       <c r="S6">
-        <v>0.004126313732523399</v>
+        <v>0.004453981892834145</v>
       </c>
       <c r="T6">
-        <v>0.004126313732523398</v>
+        <v>0.004453981892834145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N7">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O7">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P7">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q7">
-        <v>528.375267709119</v>
+        <v>504.869242910742</v>
       </c>
       <c r="R7">
-        <v>4755.377409382071</v>
+        <v>4543.823186196678</v>
       </c>
       <c r="S7">
-        <v>0.05572226719702759</v>
+        <v>0.06575586035560335</v>
       </c>
       <c r="T7">
-        <v>0.0557222671970276</v>
+        <v>0.06575586035560335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.692192</v>
       </c>
       <c r="O8">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P8">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q8">
         <v>3036.870038176416</v>
@@ -948,10 +948,10 @@
         <v>27331.83034358774</v>
       </c>
       <c r="S8">
-        <v>0.3202672306060193</v>
+        <v>0.3955321203509096</v>
       </c>
       <c r="T8">
-        <v>0.3202672306060194</v>
+        <v>0.3955321203509096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N9">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O9">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P9">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q9">
-        <v>1232.01629193339</v>
+        <v>1401.079605410178</v>
       </c>
       <c r="R9">
-        <v>11088.14662740051</v>
+        <v>12609.7164486916</v>
       </c>
       <c r="S9">
-        <v>0.1299279985375793</v>
+        <v>0.1824812982254168</v>
       </c>
       <c r="T9">
-        <v>0.1299279985375794</v>
+        <v>0.1824812982254168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N10">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O10">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P10">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q10">
-        <v>923.1702059958659</v>
+        <v>1136.850449494014</v>
       </c>
       <c r="R10">
-        <v>8308.531853962793</v>
+        <v>10231.65404544613</v>
       </c>
       <c r="S10">
-        <v>0.09735720051748524</v>
+        <v>0.1480672083946882</v>
       </c>
       <c r="T10">
-        <v>0.09735720051748527</v>
+        <v>0.1480672083946882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N11">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O11">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P11">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q11">
-        <v>861.2968886888848</v>
+        <v>700.3269737773019</v>
       </c>
       <c r="R11">
-        <v>7751.671998199964</v>
+        <v>6302.942763995718</v>
       </c>
       <c r="S11">
-        <v>0.09083206255201159</v>
+        <v>0.09121292956066258</v>
       </c>
       <c r="T11">
-        <v>0.09083206255201162</v>
+        <v>0.09121292956066258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N12">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O12">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P12">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q12">
-        <v>97.42025659064736</v>
+        <v>16.625677660016</v>
       </c>
       <c r="R12">
-        <v>876.7823093158261</v>
+        <v>149.631098940144</v>
       </c>
       <c r="S12">
-        <v>0.01027390549842224</v>
+        <v>0.002165383916489768</v>
       </c>
       <c r="T12">
-        <v>0.01027390549842224</v>
+        <v>0.002165383916489768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.692192</v>
       </c>
       <c r="O13">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P13">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q13">
-        <v>559.9290436782293</v>
+        <v>100.006136359168</v>
       </c>
       <c r="R13">
-        <v>5039.361393104064</v>
+        <v>900.055227232512</v>
       </c>
       <c r="S13">
-        <v>0.05904991715166905</v>
+        <v>0.01302513399157389</v>
       </c>
       <c r="T13">
-        <v>0.05904991715166905</v>
+        <v>0.01302513399157388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N14">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O14">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P14">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q14">
-        <v>227.1554908396733</v>
+        <v>46.13847688814401</v>
       </c>
       <c r="R14">
-        <v>2044.39941755706</v>
+        <v>415.246291993296</v>
       </c>
       <c r="S14">
-        <v>0.02395573701002315</v>
+        <v>0.006009229688435193</v>
       </c>
       <c r="T14">
-        <v>0.02395573701002315</v>
+        <v>0.006009229688435192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N15">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O15">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P15">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q15">
-        <v>170.211370291596</v>
+        <v>37.437236247472</v>
       </c>
       <c r="R15">
-        <v>1531.902332624364</v>
+        <v>336.935126227248</v>
       </c>
       <c r="S15">
-        <v>0.01795043037590086</v>
+        <v>0.004875950978110423</v>
       </c>
       <c r="T15">
-        <v>0.01795043037590086</v>
+        <v>0.004875950978110422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N16">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O16">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P16">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q16">
-        <v>158.80335251231</v>
+        <v>23.062229846896</v>
       </c>
       <c r="R16">
-        <v>1429.23017261079</v>
+        <v>207.560068622064</v>
       </c>
       <c r="S16">
-        <v>0.01674734489152166</v>
+        <v>0.0030037020210586</v>
       </c>
       <c r="T16">
-        <v>0.01674734489152166</v>
+        <v>0.0030037020210586</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N17">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O17">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P17">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q17">
-        <v>10.50918988041822</v>
+        <v>19.59230623867801</v>
       </c>
       <c r="R17">
-        <v>94.582708923764</v>
+        <v>176.330756148102</v>
       </c>
       <c r="S17">
-        <v>0.00110829541488559</v>
+        <v>0.002551767554005054</v>
       </c>
       <c r="T17">
-        <v>0.00110829541488559</v>
+        <v>0.002551767554005054</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.692192</v>
       </c>
       <c r="O18">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P18">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q18">
-        <v>60.40222891529955</v>
+        <v>117.850886403744</v>
       </c>
       <c r="R18">
-        <v>543.620060237696</v>
+        <v>1060.657977633696</v>
       </c>
       <c r="S18">
-        <v>0.006369997508602652</v>
+        <v>0.01534929397653704</v>
       </c>
       <c r="T18">
-        <v>0.006369997508602653</v>
+        <v>0.01534929397653704</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N19">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O19">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P19">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q19">
-        <v>24.50435124231555</v>
+        <v>54.37126756960202</v>
       </c>
       <c r="R19">
-        <v>220.53916118084</v>
+        <v>489.3414081264181</v>
       </c>
       <c r="S19">
-        <v>0.002584220138338917</v>
+        <v>0.007081495907834448</v>
       </c>
       <c r="T19">
-        <v>0.002584220138338918</v>
+        <v>0.007081495907834448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N20">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O20">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P20">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q20">
-        <v>18.36151610354399</v>
+        <v>44.117407560126</v>
       </c>
       <c r="R20">
-        <v>165.253644931896</v>
+        <v>397.0566680411341</v>
       </c>
       <c r="S20">
-        <v>0.001936398936498794</v>
+        <v>0.00574599885318774</v>
       </c>
       <c r="T20">
-        <v>0.001936398936498794</v>
+        <v>0.005745998853187739</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N21">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O21">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P21">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q21">
-        <v>17.13087856267333</v>
+        <v>27.177374597718</v>
       </c>
       <c r="R21">
-        <v>154.17790706406</v>
+        <v>244.596371379462</v>
       </c>
       <c r="S21">
-        <v>0.001806616340556321</v>
+        <v>0.00353967224974212</v>
       </c>
       <c r="T21">
-        <v>0.001806616340556322</v>
+        <v>0.00353967224974212</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N22">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O22">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P22">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q22">
-        <v>100.9228308127359</v>
+        <v>5.993556224335778</v>
       </c>
       <c r="R22">
-        <v>908.3054773146232</v>
+        <v>53.942006019022</v>
       </c>
       <c r="S22">
-        <v>0.01064328572609044</v>
+        <v>0.0007806208273823434</v>
       </c>
       <c r="T22">
-        <v>0.01064328572609044</v>
+        <v>0.0007806208273823434</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.692192</v>
       </c>
       <c r="O23">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P23">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q23">
-        <v>580.0603090148303</v>
+        <v>36.05220871620622</v>
       </c>
       <c r="R23">
-        <v>5220.542781133472</v>
+        <v>324.469878445856</v>
       </c>
       <c r="S23">
-        <v>0.06117295321080171</v>
+        <v>0.00469556035575936</v>
       </c>
       <c r="T23">
-        <v>0.06117295321080172</v>
+        <v>0.00469556035575936</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N24">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O24">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P24">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q24">
-        <v>235.3224675492922</v>
+        <v>16.632919330522</v>
       </c>
       <c r="R24">
-        <v>2117.90220794363</v>
+        <v>149.696273974698</v>
       </c>
       <c r="S24">
-        <v>0.0248170234596679</v>
+        <v>0.002166327095899527</v>
       </c>
       <c r="T24">
-        <v>0.02481702345966791</v>
+        <v>0.002166327095899526</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N25">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O25">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P25">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q25">
-        <v>176.331021160458</v>
+        <v>13.49612237897489</v>
       </c>
       <c r="R25">
-        <v>1586.979190444122</v>
+        <v>121.465101410774</v>
       </c>
       <c r="S25">
-        <v>0.01859580657290896</v>
+        <v>0.001757780159824278</v>
       </c>
       <c r="T25">
-        <v>0.01859580657290897</v>
+        <v>0.001757780159824278</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N26">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O26">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P26">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q26">
-        <v>164.5128481383383</v>
+        <v>8.313933066220221</v>
       </c>
       <c r="R26">
-        <v>1480.615633245045</v>
+        <v>74.825397595982</v>
       </c>
       <c r="S26">
-        <v>0.01734946626297267</v>
+        <v>0.001082834475232356</v>
       </c>
       <c r="T26">
-        <v>0.01734946626297267</v>
+        <v>0.001082834475232356</v>
       </c>
     </row>
   </sheetData>
